--- a/IOCs Pakisatni cyber threat groups targeting India.xlsx
+++ b/IOCs Pakisatni cyber threat groups targeting India.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vive la Vie!\WORK\Bon_edu\Blogging\Pak threat profiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4274D6-F6C4-486E-8CA5-E808CB8B946A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DFD1CB-C11F-4367-A6DA-98A2138535E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="258">
   <si>
     <t>Threat Actor</t>
   </si>
@@ -653,6 +653,165 @@
   </si>
   <si>
     <t>Gorgon Group</t>
+  </si>
+  <si>
+    <t>Postindia[.]site</t>
+  </si>
+  <si>
+    <t>88[.]222[.]245[.]211</t>
+  </si>
+  <si>
+    <t>cbf74574278a22f1c38ca922f91548596630fc67bb234834d52557371b9abf5d</t>
+  </si>
+  <si>
+    <t>287a5f95458301c632d6aa02de26d7fd9b63c6661af331dff1e9b2264d150d23</t>
+  </si>
+  <si>
+    <t>Email[.]gov[.]in[.]gov-in[.]mywire[.]org</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>https://www.seqrite.com/blog/advisory-pahalgam-attack-themed-decoys-used-by-apt36-to-target-the-indian-government/</t>
+  </si>
+  <si>
+    <t>https://www.cyfirma.com/research/turning-aid-into-attack-exploitation-of-pakistans-youth-laptop-scheme-to-target-india/</t>
+  </si>
+  <si>
+    <t>c4fb60217e3d43eac92074c45228506a</t>
+  </si>
+  <si>
+    <t>172fff2634545cf59d59c179d139e0aa</t>
+  </si>
+  <si>
+    <t>7b08580a4f6995f645a5bf8addbefa68</t>
+  </si>
+  <si>
+    <t>1b71434e049fb8765d528ecabd722072</t>
+  </si>
+  <si>
+    <t>c4f591cad9d158e2fbb0ed6425ce3804</t>
+  </si>
+  <si>
+    <t>5f03629508f46e822cf08d7864f585d3</t>
+  </si>
+  <si>
+    <t>f5cd5f616a482645bbf8f4c51ee38958</t>
+  </si>
+  <si>
+    <t>fa2c39adbb0ca7aeab5bc5cd1ffb2f08</t>
+  </si>
+  <si>
+    <t>00cd306f7cdcfe187c561dd42ab40f33</t>
+  </si>
+  <si>
+    <t>ca27970308b2fdeaa3a8e8e53c86cd3e</t>
+  </si>
+  <si>
+    <t>jkpolice[.]gov[.]in[.]kashmirattack[.]exposed</t>
+  </si>
+  <si>
+    <t>iaf[.]nic[.]in[.]ministryofdefenceindia[.]org</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]ministryofdefenceindia[.]org</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]departmentofdefenceindia[.]link</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]departmentofdefence[.]de</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]briefcases[.]email</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]modindia[.]link</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]defenceindia[.]ltd</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]indiadefencedepartment[.]link</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]departmentofspace[.]info</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]indiangov[.]download</t>
+  </si>
+  <si>
+    <t>indianarmy[.]nic[.]in[.]departmentofdefence[.]de</t>
+  </si>
+  <si>
+    <t>indianarmy[.]nic[.]in[.]ministryofdefenceindia[.]org</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]indiandefence[.]work</t>
+  </si>
+  <si>
+    <t>email[.]gov[.]in[.]drdosurvey[.]info</t>
+  </si>
+  <si>
+    <t>hxxps://iaf[.]nic[.]in[.]ministryofdefenceindia[.]org/publications/default[.]htm</t>
+  </si>
+  <si>
+    <t>hxxps://jkpolice[.]gov[.]in[.]kashmiraxxack[.]exposed/service/home</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]ministryofdefenceindia[.]org/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]departmentofdefenceindia[.]link/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]departmentofdefence[.]de/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]indiangov[.]download/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://indianarmy[.]nic[.]in[.]departmentofdefence[.]de/publications/publications-site-main/index[.]html</t>
+  </si>
+  <si>
+    <t>hxxps://indianarmy[.]nic[.]in[.]ministryofdefenceindia[.]org/publications/publications-site-main/index[.]htm</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]briefcases[.]email/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]modindia[.]link/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]defenceindia[.]ltd/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]indiadefencedepartment[.]link/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]departmentofspace[.]info/service/home/</t>
+  </si>
+  <si>
+    <t>hxxps://email[.]gov[.]in[.]indiandefence[.]work/service/home/</t>
+  </si>
+  <si>
+    <t>026e8e7acb2f2a156f8afff64fd54066</t>
+  </si>
+  <si>
+    <t>fb64c22d37c502bde55b19688d40c803</t>
+  </si>
+  <si>
+    <t>70b8040730c62e4a52a904251fa74029</t>
+  </si>
+  <si>
+    <t>3efec6ffcbfe79f71f5410eb46f1c19e</t>
+  </si>
+  <si>
+    <t>b03211f6feccd3a62273368b52f6079d</t>
+  </si>
+  <si>
+    <t>APT36</t>
   </si>
 </sst>
 </file>
@@ -696,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -704,7 +863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -716,7 +874,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -992,30 +1161,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z193"/>
+  <dimension ref="A1:Z232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175:C193"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +1285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1169,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1268,7 +1440,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1283,7 +1455,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1470,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1313,11 +1485,11 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
@@ -1328,7 +1500,7 @@
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1343,7 +1515,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1358,7 +1530,7 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1373,7 +1545,7 @@
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1388,7 +1560,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1575,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1418,7 +1590,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1433,7 +1605,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1448,7 +1620,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1463,7 +1635,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1477,7 +1649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1492,11 +1664,11 @@
       </c>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C35" t="s">
@@ -1507,11 +1679,11 @@
       </c>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C36" t="s">
@@ -1522,11 +1694,11 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C37" t="s">
@@ -1537,11 +1709,11 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C38" t="s">
@@ -1551,11 +1723,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
@@ -1565,11 +1737,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C40" t="s">
@@ -1579,7 +1751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1593,7 +1765,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1607,7 +1779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1621,7 +1793,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1635,7 +1807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1649,7 +1821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1663,7 +1835,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -1677,7 +1849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1691,7 +1863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -1705,7 +1877,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -1719,7 +1891,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1733,7 +1905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -1747,11 +1919,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>60</v>
       </c>
       <c r="C53" t="s">
@@ -1762,11 +1934,11 @@
       </c>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="C54" t="s">
@@ -1777,11 +1949,11 @@
       </c>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>62</v>
       </c>
       <c r="C55" t="s">
@@ -1792,11 +1964,11 @@
       </c>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="C56" t="s">
@@ -1807,11 +1979,11 @@
       </c>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>64</v>
       </c>
       <c r="C57" t="s">
@@ -1822,11 +1994,11 @@
       </c>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="s">
@@ -1837,11 +2009,11 @@
       </c>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="C59" t="s">
@@ -1851,7 +2023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -1865,7 +2037,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -1879,7 +2051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -1893,7 +2065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +2079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +2093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -1935,7 +2107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -1949,7 +2121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +2135,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1977,7 +2149,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +2163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -2005,7 +2177,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
@@ -2019,7 +2191,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>80</v>
       </c>
@@ -2033,7 +2205,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>80</v>
       </c>
@@ -2048,7 +2220,7 @@
       </c>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
@@ -2063,11 +2235,11 @@
       </c>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C75" t="s">
@@ -2078,7 +2250,7 @@
       </c>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
@@ -2093,7 +2265,7 @@
       </c>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
@@ -2108,7 +2280,7 @@
       </c>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>88</v>
       </c>
@@ -2123,7 +2295,7 @@
       </c>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
@@ -2138,7 +2310,7 @@
       </c>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>86</v>
       </c>
@@ -2153,7 +2325,7 @@
       </c>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
@@ -2168,11 +2340,11 @@
       </c>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>96</v>
       </c>
       <c r="C82" t="s">
@@ -2183,11 +2355,11 @@
       </c>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>97</v>
       </c>
       <c r="C83" t="s">
@@ -2198,11 +2370,11 @@
       </c>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>98</v>
       </c>
       <c r="C84" t="s">
@@ -2213,11 +2385,11 @@
       </c>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>99</v>
       </c>
       <c r="C85" t="s">
@@ -2228,11 +2400,11 @@
       </c>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>100</v>
       </c>
       <c r="C86" t="s">
@@ -2243,11 +2415,11 @@
       </c>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>101</v>
       </c>
       <c r="C87" t="s">
@@ -2258,11 +2430,11 @@
       </c>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>102</v>
       </c>
       <c r="C88" t="s">
@@ -2273,11 +2445,11 @@
       </c>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>103</v>
       </c>
       <c r="C89" t="s">
@@ -2288,11 +2460,11 @@
       </c>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>104</v>
       </c>
       <c r="C90" t="s">
@@ -2303,7 +2475,7 @@
       </c>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>80</v>
       </c>
@@ -2317,7 +2489,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>80</v>
       </c>
@@ -2331,7 +2503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>80</v>
       </c>
@@ -2345,7 +2517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>80</v>
       </c>
@@ -2359,7 +2531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>80</v>
       </c>
@@ -2373,7 +2545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>80</v>
       </c>
@@ -2387,7 +2559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>80</v>
       </c>
@@ -2401,7 +2573,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>80</v>
       </c>
@@ -2415,7 +2587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -2429,7 +2601,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -2443,7 +2615,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -2457,7 +2629,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -2471,7 +2643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -2485,7 +2657,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -2499,7 +2671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -2513,7 +2685,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -2527,7 +2699,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -2541,7 +2713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -2555,7 +2727,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -2569,7 +2741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -2583,7 +2755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>40</v>
       </c>
@@ -2597,7 +2769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +2783,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -2625,7 +2797,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -2639,7 +2811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2825,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -2667,7 +2839,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>40</v>
       </c>
@@ -2681,7 +2853,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>86</v>
       </c>
@@ -2695,7 +2867,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>86</v>
       </c>
@@ -2709,7 +2881,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>86</v>
       </c>
@@ -2723,7 +2895,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>86</v>
       </c>
@@ -2737,7 +2909,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>86</v>
       </c>
@@ -2751,7 +2923,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>86</v>
       </c>
@@ -2765,7 +2937,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>86</v>
       </c>
@@ -2779,7 +2951,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>86</v>
       </c>
@@ -2793,7 +2965,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>86</v>
       </c>
@@ -2807,7 +2979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>86</v>
       </c>
@@ -2821,7 +2993,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>86</v>
       </c>
@@ -2835,12 +3007,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C129" t="s">
         <v>183</v>
@@ -2849,12 +3021,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C130" t="s">
         <v>183</v>
@@ -2863,12 +3035,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
         <v>183</v>
@@ -2877,12 +3049,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
         <v>183</v>
@@ -2891,12 +3063,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s">
         <v>183</v>
@@ -2905,12 +3077,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C134" t="s">
         <v>183</v>
@@ -2919,12 +3091,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C135" t="s">
         <v>183</v>
@@ -2933,12 +3105,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C136" t="s">
         <v>183</v>
@@ -2947,12 +3119,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C137" t="s">
         <v>183</v>
@@ -2961,12 +3133,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C138" t="s">
         <v>183</v>
@@ -2975,12 +3147,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C139" t="s">
         <v>183</v>
@@ -2989,12 +3161,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C140" t="s">
         <v>183</v>
@@ -3003,12 +3175,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C141" t="s">
         <v>183</v>
@@ -3017,12 +3189,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C142" t="s">
         <v>183</v>
@@ -3031,12 +3203,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C143" t="s">
         <v>183</v>
@@ -3045,12 +3217,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C144" t="s">
         <v>183</v>
@@ -3059,12 +3231,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B145" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C145" t="s">
         <v>183</v>
@@ -3073,12 +3245,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B146" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C146" t="s">
         <v>183</v>
@@ -3087,12 +3259,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B147" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C147" t="s">
         <v>183</v>
@@ -3101,12 +3273,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B148" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C148" t="s">
         <v>183</v>
@@ -3115,12 +3287,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B149" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C149" t="s">
         <v>183</v>
@@ -3129,12 +3301,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C150" t="s">
         <v>183</v>
@@ -3143,12 +3315,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C151" t="s">
         <v>183</v>
@@ -3157,12 +3329,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C152" t="s">
         <v>183</v>
@@ -3171,12 +3343,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C153" t="s">
         <v>183</v>
@@ -3185,12 +3357,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B154" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C154" t="s">
         <v>183</v>
@@ -3199,12 +3371,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B155" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C155" t="s">
         <v>183</v>
@@ -3213,12 +3385,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C156" t="s">
         <v>183</v>
@@ -3227,12 +3399,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C157" t="s">
         <v>183</v>
@@ -3241,12 +3413,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B158" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C158" t="s">
         <v>183</v>
@@ -3255,12 +3427,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C159" t="s">
         <v>183</v>
@@ -3269,12 +3441,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B160" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C160" t="s">
         <v>183</v>
@@ -3283,12 +3455,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B161" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C161" t="s">
         <v>183</v>
@@ -3297,12 +3469,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B162" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C162" t="s">
         <v>183</v>
@@ -3311,12 +3483,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C163" t="s">
         <v>183</v>
@@ -3325,12 +3497,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B164" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C164" t="s">
         <v>183</v>
@@ -3339,138 +3511,138 @@
         <v>106</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165" t="s">
-        <v>176</v>
+        <v>80</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C165" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D165" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B166" t="s">
-        <v>137</v>
+        <v>80</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C166" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D166" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B167" t="s">
-        <v>138</v>
+        <v>80</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C167" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D167" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B168" t="s">
-        <v>177</v>
+        <v>80</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D168" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B169" t="s">
-        <v>178</v>
+        <v>80</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="C169" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D169" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B170" t="s">
-        <v>179</v>
+        <v>80</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D170" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B171" t="s">
-        <v>180</v>
+        <v>80</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C171" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D171" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B172" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C172" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D172" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B173" t="s">
-        <v>182</v>
+        <v>80</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="C173" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D173" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>184</v>
+        <v>41</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C174" t="s">
         <v>204</v>
@@ -3479,12 +3651,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C175" t="s">
         <v>204</v>
@@ -3493,12 +3665,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C176" t="s">
         <v>204</v>
@@ -3507,12 +3679,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C177" t="s">
         <v>204</v>
@@ -3521,12 +3693,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C178" t="s">
         <v>204</v>
@@ -3535,12 +3707,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
         <v>204</v>
@@ -3549,12 +3721,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C180" t="s">
         <v>204</v>
@@ -3563,12 +3735,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C181" t="s">
         <v>204</v>
@@ -3577,12 +3749,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C182" t="s">
         <v>204</v>
@@ -3591,12 +3763,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C183" t="s">
         <v>204</v>
@@ -3605,147 +3777,696 @@
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184" t="s">
+        <v>205</v>
+      </c>
+      <c r="C184" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>210</v>
+      </c>
+      <c r="B185" t="s">
+        <v>206</v>
+      </c>
+      <c r="C185" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>80</v>
+      </c>
+      <c r="B186" t="s">
+        <v>207</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>80</v>
+      </c>
+      <c r="B187" t="s">
+        <v>208</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" t="s">
+        <v>209</v>
+      </c>
+      <c r="C188" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>213</v>
+      </c>
+      <c r="C189" t="s">
+        <v>257</v>
+      </c>
+      <c r="D189" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>214</v>
+      </c>
+      <c r="C190" t="s">
+        <v>257</v>
+      </c>
+      <c r="D190" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>215</v>
+      </c>
+      <c r="C191" t="s">
+        <v>257</v>
+      </c>
+      <c r="D191" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s">
+        <v>216</v>
+      </c>
+      <c r="C192" t="s">
+        <v>257</v>
+      </c>
+      <c r="D192" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>217</v>
+      </c>
+      <c r="C193" t="s">
+        <v>257</v>
+      </c>
+      <c r="D193" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>218</v>
+      </c>
+      <c r="C194" t="s">
+        <v>257</v>
+      </c>
+      <c r="D194" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" t="s">
+        <v>219</v>
+      </c>
+      <c r="C195" t="s">
+        <v>257</v>
+      </c>
+      <c r="D195" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>220</v>
+      </c>
+      <c r="C196" t="s">
+        <v>257</v>
+      </c>
+      <c r="D196" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>221</v>
+      </c>
+      <c r="C197" t="s">
+        <v>257</v>
+      </c>
+      <c r="D197" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>222</v>
+      </c>
+      <c r="C198" t="s">
+        <v>257</v>
+      </c>
+      <c r="D198" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199" t="s">
+        <v>223</v>
+      </c>
+      <c r="C199" t="s">
+        <v>257</v>
+      </c>
+      <c r="D199" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" t="s">
+        <v>224</v>
+      </c>
+      <c r="C200" t="s">
+        <v>257</v>
+      </c>
+      <c r="D200" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201" t="s">
+        <v>225</v>
+      </c>
+      <c r="C201" t="s">
+        <v>257</v>
+      </c>
+      <c r="D201" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" t="s">
+        <v>226</v>
+      </c>
+      <c r="C202" t="s">
+        <v>257</v>
+      </c>
+      <c r="D202" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" t="s">
+        <v>227</v>
+      </c>
+      <c r="C203" t="s">
+        <v>257</v>
+      </c>
+      <c r="D203" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204" t="s">
+        <v>228</v>
+      </c>
+      <c r="C204" t="s">
+        <v>257</v>
+      </c>
+      <c r="D204" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205" t="s">
+        <v>229</v>
+      </c>
+      <c r="C205" t="s">
+        <v>257</v>
+      </c>
+      <c r="D205" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>40</v>
+      </c>
+      <c r="B206" t="s">
+        <v>230</v>
+      </c>
+      <c r="C206" t="s">
+        <v>257</v>
+      </c>
+      <c r="D206" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207" t="s">
+        <v>231</v>
+      </c>
+      <c r="C207" t="s">
+        <v>257</v>
+      </c>
+      <c r="D207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>40</v>
+      </c>
+      <c r="B208" t="s">
+        <v>232</v>
+      </c>
+      <c r="C208" t="s">
+        <v>257</v>
+      </c>
+      <c r="D208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>40</v>
+      </c>
+      <c r="B209" t="s">
+        <v>233</v>
+      </c>
+      <c r="C209" t="s">
+        <v>257</v>
+      </c>
+      <c r="D209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" t="s">
+        <v>234</v>
+      </c>
+      <c r="C210" t="s">
+        <v>257</v>
+      </c>
+      <c r="D210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" t="s">
+        <v>235</v>
+      </c>
+      <c r="C211" t="s">
+        <v>257</v>
+      </c>
+      <c r="D211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212" t="s">
+        <v>236</v>
+      </c>
+      <c r="C212" t="s">
+        <v>257</v>
+      </c>
+      <c r="D212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" t="s">
+        <v>237</v>
+      </c>
+      <c r="C213" t="s">
+        <v>257</v>
+      </c>
+      <c r="D213" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>41</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C184" t="s">
-        <v>204</v>
-      </c>
-      <c r="D184" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="B214" t="s">
+        <v>238</v>
+      </c>
+      <c r="C214" t="s">
+        <v>257</v>
+      </c>
+      <c r="D214" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>41</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C185" t="s">
-        <v>204</v>
-      </c>
-      <c r="D185" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="B215" t="s">
+        <v>239</v>
+      </c>
+      <c r="C215" t="s">
+        <v>257</v>
+      </c>
+      <c r="D215" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>41</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" t="s">
-        <v>204</v>
-      </c>
-      <c r="D186" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="B216" t="s">
+        <v>240</v>
+      </c>
+      <c r="C216" t="s">
+        <v>257</v>
+      </c>
+      <c r="D216" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>41</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C187" t="s">
-        <v>204</v>
-      </c>
-      <c r="D187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="B217" t="s">
+        <v>241</v>
+      </c>
+      <c r="C217" t="s">
+        <v>257</v>
+      </c>
+      <c r="D217" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>41</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C188" t="s">
-        <v>204</v>
-      </c>
-      <c r="D188" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="B218" t="s">
+        <v>242</v>
+      </c>
+      <c r="C218" t="s">
+        <v>257</v>
+      </c>
+      <c r="D218" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>41</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C189" t="s">
-        <v>204</v>
-      </c>
-      <c r="D189" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="B219" t="s">
+        <v>243</v>
+      </c>
+      <c r="C219" t="s">
+        <v>257</v>
+      </c>
+      <c r="D219" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C190" t="s">
-        <v>204</v>
-      </c>
-      <c r="D190" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="B220" t="s">
+        <v>244</v>
+      </c>
+      <c r="C220" t="s">
+        <v>257</v>
+      </c>
+      <c r="D220" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>41</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C191" t="s">
-        <v>204</v>
-      </c>
-      <c r="D191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="B221" t="s">
+        <v>245</v>
+      </c>
+      <c r="C221" t="s">
+        <v>257</v>
+      </c>
+      <c r="D221" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>41</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C192" t="s">
-        <v>204</v>
-      </c>
-      <c r="D192" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="B222" t="s">
+        <v>246</v>
+      </c>
+      <c r="C222" t="s">
+        <v>257</v>
+      </c>
+      <c r="D222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>41</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C193" t="s">
-        <v>204</v>
-      </c>
-      <c r="D193" t="s">
-        <v>203</v>
+      <c r="B223" t="s">
+        <v>247</v>
+      </c>
+      <c r="C223" t="s">
+        <v>257</v>
+      </c>
+      <c r="D223" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>41</v>
+      </c>
+      <c r="B224" t="s">
+        <v>248</v>
+      </c>
+      <c r="C224" t="s">
+        <v>257</v>
+      </c>
+      <c r="D224" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>41</v>
+      </c>
+      <c r="B225" t="s">
+        <v>249</v>
+      </c>
+      <c r="C225" t="s">
+        <v>257</v>
+      </c>
+      <c r="D225" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>41</v>
+      </c>
+      <c r="B226" t="s">
+        <v>250</v>
+      </c>
+      <c r="C226" t="s">
+        <v>257</v>
+      </c>
+      <c r="D226" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>41</v>
+      </c>
+      <c r="B227" t="s">
+        <v>251</v>
+      </c>
+      <c r="C227" t="s">
+        <v>257</v>
+      </c>
+      <c r="D227" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
+        <v>252</v>
+      </c>
+      <c r="C228" t="s">
+        <v>257</v>
+      </c>
+      <c r="D228" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" t="s">
+        <v>253</v>
+      </c>
+      <c r="C229" t="s">
+        <v>257</v>
+      </c>
+      <c r="D229" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>254</v>
+      </c>
+      <c r="C230" t="s">
+        <v>257</v>
+      </c>
+      <c r="D230" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>255</v>
+      </c>
+      <c r="C231" t="s">
+        <v>257</v>
+      </c>
+      <c r="D231" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" t="s">
+        <v>256</v>
+      </c>
+      <c r="C232" t="s">
+        <v>257</v>
+      </c>
+      <c r="D232" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B232 B244:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
